--- a/Running projects/NASTP/018- Invoice for Operation and maintenance charges August 24.xlsx
+++ b/Running projects/NASTP/018- Invoice for Operation and maintenance charges August 24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D37005-CE84-4B2F-B3D5-61A846C179F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEB825C-947C-4108-8377-E6C07A6D6DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:H49"/>
+  <dimension ref="A10:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1393,10 +1393,8 @@
       <c r="A35" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="40">
-        <f>D28</f>
-        <v>2254000</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
@@ -1406,13 +1404,8 @@
         <v>4</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="41">
-        <f>D35*11%</f>
-        <v>247940</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
       <c r="G37" s="31">
         <f>G34+G30</f>
         <v>2920000</v>
@@ -1424,89 +1417,130 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="48">
-        <f>D27*20%</f>
-        <v>58800</v>
-      </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="41">
-        <f>D35-D37-D38</f>
-        <v>1947260</v>
-      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="28"/>
+      <c r="D45" s="40">
+        <f>D28</f>
+        <v>2254000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D47" s="41">
+        <f>D45*11%</f>
+        <v>247940</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="48">
+        <f>D27*20%</f>
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="41">
+        <f>D45-D47-D48</f>
+        <v>1947260</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="42">
         <f>D28*11%</f>
         <v>247940</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="8" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D55" s="43">
         <f>D27*20%</f>
         <v>58800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="8" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="43">
-        <f>D28-D44-D45</f>
+      <c r="D56" s="43">
+        <f>D28-D54-D55</f>
         <v>1947260</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="8"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="8"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
